--- a/src/Controllers/Sheet/templates/sheet-yesterday-today-template.xlsx
+++ b/src/Controllers/Sheet/templates/sheet-yesterday-today-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34E744-22B0-4424-A128-1F7EB5EA1B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B487441-F9BF-4CA6-9C74-E9257C93478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CDE337-A4A4-4202-BDB0-1B9F047ECC56}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Código</t>
   </si>
   <si>
-    <t>Símbulo</t>
-  </si>
-  <si>
     <t>Horário do relatório</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>Símbolo</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,27 +539,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5">
         <v>4.2699999999999996</v>
@@ -587,7 +587,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
